--- a/sueldos.xlsx
+++ b/sueldos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\PAGINA DDP\DDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60371EB8-982B-48B8-A31F-6D17F85A30E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104BF014-D97A-4A48-A20F-685FFB6533B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7A19C8E6-9F3D-457D-99DA-EBE9D06E42B5}"/>
   </bookViews>
@@ -8286,7 +8286,7 @@
     <t>TRANSPORTADORA DE GAS DEL SUR S A</t>
   </si>
   <si>
-    <t>Comitentte</t>
+    <t>Comitente</t>
   </si>
 </sst>
 </file>
@@ -8641,7 +8641,7 @@
   <dimension ref="A1:L719"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
